--- a/Supporting/ProjDatabase_MetadataElements.xlsx
+++ b/Supporting/ProjDatabase_MetadataElements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehunsing\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F00E3CF-D155-4BA2-A697-3BFA575C5B6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DDF053-0AB0-45B5-AEAB-215C72EC00A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4369A940-B169-4D43-BF15-FF77031E4939}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{4369A940-B169-4D43-BF15-FF77031E4939}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjDatabase_MetadataElements" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="149">
   <si>
     <t>issued</t>
   </si>
@@ -478,13 +478,37 @@
   </si>
   <si>
     <t>;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A reference for vocabulary: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A Practicioner's Guide to State and Local Population Projections</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (authored by Smith, Tayman, and Swanson; published by Springer in 2013)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +532,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -885,7 +916,7 @@
     <col min="3" max="3" width="22.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="37.88671875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="37.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="37.88671875" style="6" customWidth="1"/>
     <col min="9" max="12" width="21.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.33203125" style="6" bestFit="1" customWidth="1"/>
@@ -1796,7 +1827,7 @@
         <v>106</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>147</v>
